--- a/CategoryData16.xlsx
+++ b/CategoryData16.xlsx
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,6 +1867,9 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>16</v>
+      </c>
       <c r="B23">
         <v>12</v>
       </c>
